--- a/src/DataSheet.xlsx
+++ b/src/DataSheet.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="EmpDetails" sheetId="1" r:id="rId1"/>
+    <sheet name="testData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -408,7 +408,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/DataSheet.xlsx
+++ b/src/DataSheet.xlsx
@@ -16,25 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Sardar</t>
-  </si>
-  <si>
-    <t>Programmer Analyst</t>
-  </si>
-  <si>
-    <t>Employee ID</t>
-  </si>
-  <si>
-    <t>Contact no</t>
-  </si>
-  <si>
-    <t>Designation</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Search</t>
   </si>
@@ -42,7 +24,31 @@
     <t>Samsung M20</t>
   </si>
   <si>
-    <t>test</t>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Test4</t>
+  </si>
+  <si>
+    <t>Test5</t>
+  </si>
+  <si>
+    <t>Moto G5</t>
+  </si>
+  <si>
+    <t>Nokia</t>
+  </si>
+  <si>
+    <t>iPhone</t>
+  </si>
+  <si>
+    <t>One Plus</t>
   </si>
 </sst>
 </file>
@@ -408,7 +414,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -423,68 +429,68 @@
     <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>442069</v>
-      </c>
-      <c r="E2" s="1">
-        <v>9088922312</v>
-      </c>
-      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
